--- a/python/estoque.xlsx
+++ b/python/estoque.xlsx
@@ -15,14 +15,14 @@
     <sheet name="stock" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0">stock!$A$1:$G$18</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0">stock!$A$1:$G$13</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="35">
   <si>
     <t>sapCode</t>
   </si>
@@ -33,38 +33,16 @@
     <t>line</t>
   </si>
   <si>
-    <t xml:space="preserve">stock
-</t>
-  </si>
-  <si>
     <t>demand</t>
   </si>
   <si>
     <t>cobertura</t>
   </si>
   <si>
-    <t>2230210018.02</t>
-  </si>
-  <si>
-    <t>LIBERADO TETO ACABADO 226F BL</t>
-  </si>
-  <si>
-    <t>2230210036.00</t>
-  </si>
-  <si>
-    <t>LIBERADO TETO ACABADO 551F SG - 22</t>
-  </si>
-  <si>
-    <t>551/598.1</t>
-  </si>
-  <si>
     <t>2230210046.01</t>
   </si>
   <si>
     <t>LIBERADO TETO ACABADO 551P SG</t>
-  </si>
-  <si>
-    <t>551/598.2</t>
   </si>
   <si>
     <t>2230210047.01</t>
@@ -83,18 +61,6 @@
   </si>
   <si>
     <t>LIBERADO TETO ACABADO 598F SG</t>
-  </si>
-  <si>
-    <t>2230210029.00</t>
-  </si>
-  <si>
-    <t>LIBERADO TETO ACABADO 598F BL</t>
-  </si>
-  <si>
-    <t>2230210031.01</t>
-  </si>
-  <si>
-    <t>LIBERADO TETO ACABADO 521F BL</t>
   </si>
   <si>
     <t>2230210034.01</t>
@@ -133,12 +99,6 @@
     <t>LIBERADO TETO ACABADO 551F SG - 21</t>
   </si>
   <si>
-    <t>2230210048.01</t>
-  </si>
-  <si>
-    <t>LIBERADO TETO ACABADO 551F BL</t>
-  </si>
-  <si>
     <t>2230210044.01</t>
   </si>
   <si>
@@ -152,6 +112,21 @@
   </si>
   <si>
     <t>1</t>
+  </si>
+  <si>
+    <t>stock</t>
+  </si>
+  <si>
+    <t>551/598-1</t>
+  </si>
+  <si>
+    <t>551/598-2</t>
+  </si>
+  <si>
+    <t>521-1</t>
+  </si>
+  <si>
+    <t>521-2</t>
   </si>
 </sst>
 </file>
@@ -213,7 +188,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -245,6 +220,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -263,13 +241,16 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabela1" displayName="Tabela1" ref="A1:G18" totalsRowShown="0">
-  <autoFilter ref="A1:G18"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabela1" displayName="Tabela1" ref="A1:G13" totalsRowShown="0">
+  <autoFilter ref="A1:G13"/>
+  <sortState ref="A2:G18">
+    <sortCondition ref="F1:F18"/>
+  </sortState>
   <tableColumns count="7">
     <tableColumn id="1" name="sapCode"/>
     <tableColumn id="2" name="description"/>
     <tableColumn id="3" name="line"/>
-    <tableColumn id="4" name="stock_x000a_"/>
+    <tableColumn id="4" name="stock"/>
     <tableColumn id="5" name="demand"/>
     <tableColumn id="6" name="cobertura"/>
     <tableColumn id="7" name="1"/>
@@ -566,10 +547,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:Y1000"/>
+  <dimension ref="A1:Y995"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J8" sqref="J8"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="G22" sqref="G22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -597,16 +578,16 @@
         <v>2</v>
       </c>
       <c r="D1" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="E1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="F1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2" t="s">
-        <v>5</v>
-      </c>
       <c r="G1" s="3" t="s">
-        <v>42</v>
+        <v>29</v>
       </c>
       <c r="H1" s="4"/>
       <c r="I1" s="4"/>
@@ -629,27 +610,27 @@
     </row>
     <row r="2" spans="1:25" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
-      <c r="B2" s="1" t="s">
-        <v>7</v>
+      <c r="B2" s="15" t="s">
+        <v>14</v>
       </c>
       <c r="C2" s="5">
         <v>226</v>
       </c>
       <c r="D2" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" s="3">
         <v>227</v>
       </c>
       <c r="F2" s="2">
-        <f t="shared" ref="F2:F18" si="0">IF(OR(D2=0, E2=0), 0, D2/E2)</f>
-        <v>0</v>
+        <f>IF(OR(D2=0, E2=0), 0, D2/E2)</f>
+        <v>0.44052863436123346</v>
       </c>
       <c r="G2" s="3">
-        <f t="shared" ref="G2:G18" si="1">(E2*$G$1)-D2</f>
-        <v>227</v>
+        <f>(E2*$G$1)-D2</f>
+        <v>127</v>
       </c>
       <c r="H2" s="4"/>
       <c r="I2" s="4"/>
@@ -672,27 +653,27 @@
     </row>
     <row r="3" spans="1:25" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>8</v>
+        <v>21</v>
       </c>
-      <c r="B3" s="1" t="s">
-        <v>9</v>
+      <c r="B3" s="15" t="s">
+        <v>22</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>10</v>
+        <v>34</v>
       </c>
       <c r="D3" s="3">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="E3" s="3">
-        <v>8</v>
+        <v>36</v>
       </c>
       <c r="F3" s="2">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <f>IF(OR(D3=0, E3=0), 0, D3/E3)</f>
+        <v>0.66666666666666663</v>
       </c>
       <c r="G3" s="3">
-        <f t="shared" si="1"/>
-        <v>8</v>
+        <f>(E3*$G$1)-D3</f>
+        <v>12</v>
       </c>
       <c r="H3" s="4"/>
       <c r="I3" s="4"/>
@@ -715,30 +696,30 @@
     </row>
     <row r="4" spans="1:25" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>11</v>
+        <v>23</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>13</v>
+        <v>31</v>
       </c>
       <c r="D4" s="3">
-        <v>77</v>
+        <v>110</v>
       </c>
       <c r="E4" s="3">
-        <v>0</v>
+        <v>115</v>
       </c>
       <c r="F4" s="2">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <f>IF(OR(D4=0, E4=0), 0, D4/E4)</f>
+        <v>0.95652173913043481</v>
       </c>
       <c r="G4" s="3">
-        <f t="shared" si="1"/>
-        <v>-77</v>
+        <f>(E4*$G$1)-D4</f>
+        <v>5</v>
       </c>
-      <c r="H4" s="4"/>
-      <c r="I4" s="4"/>
+      <c r="H4" s="6"/>
+      <c r="I4" s="6"/>
       <c r="J4" s="4"/>
       <c r="K4" s="4"/>
       <c r="L4" s="4"/>
@@ -758,29 +739,29 @@
     </row>
     <row r="5" spans="1:25" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>14</v>
+        <v>27</v>
       </c>
-      <c r="B5" s="1" t="s">
-        <v>15</v>
+      <c r="B5" s="15" t="s">
+        <v>28</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>13</v>
+        <v>33</v>
       </c>
       <c r="D5" s="3">
-        <v>105</v>
+        <v>240</v>
       </c>
       <c r="E5" s="3">
+        <v>240</v>
+      </c>
+      <c r="F5" s="2">
+        <f>IF(OR(D5=0, E5=0), 0, D5/E5)</f>
+        <v>1</v>
+      </c>
+      <c r="G5" s="3">
+        <f>(E5*$G$1)-D5</f>
         <v>0</v>
       </c>
-      <c r="F5" s="2">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G5" s="3">
-        <f t="shared" si="1"/>
-        <v>-105</v>
-      </c>
-      <c r="H5" s="4"/>
+      <c r="H5" s="6"/>
       <c r="I5" s="4"/>
       <c r="J5" s="4"/>
       <c r="K5" s="4"/>
@@ -801,27 +782,27 @@
     </row>
     <row r="6" spans="1:25" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>13</v>
+        <v>31</v>
       </c>
       <c r="D6" s="3">
-        <v>49</v>
+        <v>60</v>
       </c>
       <c r="E6" s="3">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="F6" s="2">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <f>IF(OR(D6=0, E6=0), 0, D6/E6)</f>
+        <v>1.2</v>
       </c>
       <c r="G6" s="3">
-        <f t="shared" si="1"/>
-        <v>-49</v>
+        <f>(E6*$G$1)-D6</f>
+        <v>-10</v>
       </c>
       <c r="H6" s="4"/>
       <c r="I6" s="4"/>
@@ -844,27 +825,27 @@
     </row>
     <row r="7" spans="1:25" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>10</v>
+        <v>32</v>
       </c>
       <c r="D7" s="3">
-        <v>78</v>
+        <v>51</v>
       </c>
       <c r="E7" s="3">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="F7" s="2">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <f>IF(OR(D7=0, E7=0), 0, D7/E7)</f>
+        <v>1.2749999999999999</v>
       </c>
       <c r="G7" s="3">
-        <f t="shared" si="1"/>
-        <v>-78</v>
+        <f>(E7*$G$1)-D7</f>
+        <v>-11</v>
       </c>
       <c r="H7" s="4"/>
       <c r="I7" s="4"/>
@@ -887,27 +868,27 @@
     </row>
     <row r="8" spans="1:25" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
-      <c r="B8" s="1" t="s">
-        <v>21</v>
+      <c r="B8" s="15" t="s">
+        <v>26</v>
       </c>
-      <c r="C8" s="2" t="s">
-        <v>10</v>
+      <c r="C8" s="5">
+        <v>226</v>
       </c>
       <c r="D8" s="3">
-        <v>113</v>
+        <v>140</v>
       </c>
       <c r="E8" s="3">
-        <v>0</v>
+        <v>101</v>
       </c>
       <c r="F8" s="2">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <f>IF(OR(D8=0, E8=0), 0, D8/E8)</f>
+        <v>1.386138613861386</v>
       </c>
       <c r="G8" s="3">
-        <f t="shared" si="1"/>
-        <v>-113</v>
+        <f>(E8*$G$1)-D8</f>
+        <v>-39</v>
       </c>
       <c r="H8" s="4"/>
       <c r="I8" s="4"/>
@@ -930,34 +911,34 @@
     </row>
     <row r="9" spans="1:25" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B9" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="C9" s="5">
+        <v>226</v>
+      </c>
+      <c r="D9" s="3">
         <v>22</v>
       </c>
-      <c r="B9" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="C9" s="2">
-        <v>521.1</v>
-      </c>
-      <c r="D9" s="3">
-        <v>80</v>
-      </c>
       <c r="E9" s="3">
-        <v>240</v>
+        <v>13</v>
       </c>
       <c r="F9" s="2">
-        <f t="shared" si="0"/>
-        <v>0.33333333333333331</v>
+        <f>IF(OR(D9=0, E9=0), 0, D9/E9)</f>
+        <v>1.6923076923076923</v>
       </c>
       <c r="G9" s="3">
-        <f t="shared" si="1"/>
-        <v>160</v>
+        <f>(E9*$G$1)-D9</f>
+        <v>-9</v>
       </c>
-      <c r="H9" s="6"/>
-      <c r="I9" s="6"/>
+      <c r="H9" s="4"/>
+      <c r="I9" s="4"/>
       <c r="J9" s="4"/>
       <c r="K9" s="4"/>
       <c r="L9" s="4"/>
-      <c r="M9" s="4"/>
+      <c r="M9" s="7"/>
       <c r="N9" s="4"/>
       <c r="O9" s="4"/>
       <c r="P9" s="4"/>
@@ -973,29 +954,29 @@
     </row>
     <row r="10" spans="1:25" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>24</v>
+        <v>5</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>25</v>
+        <v>6</v>
       </c>
-      <c r="C10" s="5">
-        <v>226</v>
+      <c r="C10" s="2" t="s">
+        <v>32</v>
       </c>
       <c r="D10" s="3">
-        <v>70</v>
+        <v>110</v>
       </c>
       <c r="E10" s="3">
-        <v>115</v>
+        <v>40</v>
       </c>
       <c r="F10" s="2">
-        <f t="shared" si="0"/>
-        <v>0.60869565217391308</v>
+        <f>IF(OR(D10=0, E10=0), 0, D10/E10)</f>
+        <v>2.75</v>
       </c>
       <c r="G10" s="3">
-        <f t="shared" si="1"/>
-        <v>45</v>
+        <f>(E10*$G$1)-D10</f>
+        <v>-70</v>
       </c>
-      <c r="H10" s="6"/>
+      <c r="H10" s="4"/>
       <c r="I10" s="4"/>
       <c r="J10" s="4"/>
       <c r="K10" s="4"/>
@@ -1016,27 +997,27 @@
     </row>
     <row r="11" spans="1:25" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>26</v>
+        <v>7</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>27</v>
+        <v>8</v>
       </c>
-      <c r="C11" s="5">
-        <v>226</v>
+      <c r="C11" s="2" t="s">
+        <v>32</v>
       </c>
       <c r="D11" s="3">
-        <v>70</v>
+        <v>95</v>
       </c>
       <c r="E11" s="3">
-        <v>101</v>
+        <v>29</v>
       </c>
       <c r="F11" s="2">
-        <f t="shared" si="0"/>
-        <v>0.69306930693069302</v>
+        <f>IF(OR(D11=0, E11=0), 0, D11/E11)</f>
+        <v>3.2758620689655173</v>
       </c>
       <c r="G11" s="3">
-        <f t="shared" si="1"/>
-        <v>31</v>
+        <f>(E11*$G$1)-D11</f>
+        <v>-66</v>
       </c>
       <c r="H11" s="4"/>
       <c r="I11" s="4"/>
@@ -1059,27 +1040,27 @@
     </row>
     <row r="12" spans="1:25" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>28</v>
+        <v>15</v>
       </c>
-      <c r="B12" s="1" t="s">
-        <v>29</v>
+      <c r="B12" s="15" t="s">
+        <v>16</v>
       </c>
       <c r="C12" s="5">
         <v>226</v>
       </c>
       <c r="D12" s="3">
-        <v>34</v>
+        <v>80</v>
       </c>
       <c r="E12" s="3">
-        <v>40</v>
+        <v>17</v>
       </c>
       <c r="F12" s="2">
-        <f t="shared" si="0"/>
-        <v>0.85</v>
+        <f>IF(OR(D12=0, E12=0), 0, D12/E12)</f>
+        <v>4.7058823529411766</v>
       </c>
       <c r="G12" s="3">
-        <f t="shared" si="1"/>
-        <v>6</v>
+        <f>(E12*$G$1)-D12</f>
+        <v>-63</v>
       </c>
       <c r="H12" s="4"/>
       <c r="I12" s="4"/>
@@ -1102,27 +1083,27 @@
     </row>
     <row r="13" spans="1:25" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
-      <c r="B13" s="1" t="s">
-        <v>31</v>
+      <c r="B13" s="15" t="s">
+        <v>20</v>
       </c>
-      <c r="C13" s="2">
-        <v>521.20000000000005</v>
+      <c r="C13" s="2" t="s">
+        <v>34</v>
       </c>
       <c r="D13" s="3">
-        <v>35</v>
+        <v>58</v>
       </c>
       <c r="E13" s="3">
-        <v>29</v>
+        <v>8</v>
       </c>
       <c r="F13" s="2">
-        <f t="shared" si="0"/>
-        <v>1.2068965517241379</v>
+        <f>IF(OR(D13=0, E13=0), 0, D13/E13)</f>
+        <v>7.25</v>
       </c>
       <c r="G13" s="3">
-        <f t="shared" si="1"/>
-        <v>-6</v>
+        <f>(E13*$G$1)-D13</f>
+        <v>-50</v>
       </c>
       <c r="H13" s="4"/>
       <c r="I13" s="4"/>
@@ -1144,35 +1125,19 @@
       <c r="Y13" s="4"/>
     </row>
     <row r="14" spans="1:25" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="C14" s="2">
-        <v>521.20000000000005</v>
-      </c>
-      <c r="D14" s="3">
-        <v>71</v>
-      </c>
-      <c r="E14" s="3">
-        <v>36</v>
-      </c>
-      <c r="F14" s="2">
-        <f t="shared" si="0"/>
-        <v>1.9722222222222223</v>
-      </c>
-      <c r="G14" s="3">
-        <f t="shared" si="1"/>
-        <v>-35</v>
-      </c>
+      <c r="A14" s="8"/>
+      <c r="B14" s="8"/>
+      <c r="C14" s="9"/>
+      <c r="D14" s="10"/>
+      <c r="E14" s="10"/>
+      <c r="F14" s="9"/>
+      <c r="G14" s="10"/>
       <c r="H14" s="4"/>
       <c r="I14" s="4"/>
       <c r="J14" s="4"/>
       <c r="K14" s="4"/>
       <c r="L14" s="4"/>
-      <c r="M14" s="7"/>
+      <c r="M14" s="4"/>
       <c r="N14" s="4"/>
       <c r="O14" s="4"/>
       <c r="P14" s="4"/>
@@ -1187,29 +1152,13 @@
       <c r="Y14" s="4"/>
     </row>
     <row r="15" spans="1:25" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="D15" s="3">
-        <v>50</v>
-      </c>
-      <c r="E15" s="3">
-        <v>17</v>
-      </c>
-      <c r="F15" s="2">
-        <f t="shared" si="0"/>
-        <v>2.9411764705882355</v>
-      </c>
-      <c r="G15" s="3">
-        <f t="shared" si="1"/>
-        <v>-33</v>
-      </c>
+      <c r="A15" s="8"/>
+      <c r="B15" s="8"/>
+      <c r="C15" s="9"/>
+      <c r="D15" s="10"/>
+      <c r="E15" s="10"/>
+      <c r="F15" s="9"/>
+      <c r="G15" s="10"/>
       <c r="H15" s="4"/>
       <c r="I15" s="4"/>
       <c r="J15" s="4"/>
@@ -1230,29 +1179,13 @@
       <c r="Y15" s="4"/>
     </row>
     <row r="16" spans="1:25" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="C16" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="D16" s="3">
-        <v>45</v>
-      </c>
-      <c r="E16" s="3">
-        <v>13</v>
-      </c>
-      <c r="F16" s="2">
-        <f t="shared" si="0"/>
-        <v>3.4615384615384617</v>
-      </c>
-      <c r="G16" s="3">
-        <f t="shared" si="1"/>
-        <v>-32</v>
-      </c>
+      <c r="A16" s="8"/>
+      <c r="B16" s="8"/>
+      <c r="C16" s="9"/>
+      <c r="D16" s="10"/>
+      <c r="E16" s="10"/>
+      <c r="F16" s="9"/>
+      <c r="G16" s="10"/>
       <c r="H16" s="4"/>
       <c r="I16" s="4"/>
       <c r="J16" s="4"/>
@@ -1273,29 +1206,13 @@
       <c r="Y16" s="4"/>
     </row>
     <row r="17" spans="1:25" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="C17" s="5">
-        <v>226</v>
-      </c>
-      <c r="D17" s="3">
-        <v>240</v>
-      </c>
-      <c r="E17" s="3">
-        <v>40</v>
-      </c>
-      <c r="F17" s="2">
-        <f t="shared" si="0"/>
-        <v>6</v>
-      </c>
-      <c r="G17" s="3">
-        <f t="shared" si="1"/>
-        <v>-200</v>
-      </c>
+      <c r="A17" s="8"/>
+      <c r="B17" s="8"/>
+      <c r="C17" s="9"/>
+      <c r="D17" s="10"/>
+      <c r="E17" s="10"/>
+      <c r="F17" s="9"/>
+      <c r="G17" s="10"/>
       <c r="H17" s="4"/>
       <c r="I17" s="4"/>
       <c r="J17" s="4"/>
@@ -1316,29 +1233,13 @@
       <c r="Y17" s="4"/>
     </row>
     <row r="18" spans="1:25" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="C18" s="2">
-        <v>521.1</v>
-      </c>
-      <c r="D18" s="3">
-        <v>330</v>
-      </c>
-      <c r="E18" s="3">
-        <v>50</v>
-      </c>
-      <c r="F18" s="2">
-        <f t="shared" si="0"/>
-        <v>6.6</v>
-      </c>
-      <c r="G18" s="3">
-        <f t="shared" si="1"/>
-        <v>-280</v>
-      </c>
+      <c r="A18" s="8"/>
+      <c r="B18" s="8"/>
+      <c r="C18" s="9"/>
+      <c r="D18" s="10"/>
+      <c r="E18" s="10"/>
+      <c r="F18" s="9"/>
+      <c r="G18" s="10"/>
       <c r="H18" s="4"/>
       <c r="I18" s="4"/>
       <c r="J18" s="4"/>
@@ -1655,7 +1556,7 @@
       <c r="X29" s="4"/>
       <c r="Y29" s="4"/>
     </row>
-    <row r="30" spans="1:25" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="8"/>
       <c r="B30" s="8"/>
       <c r="C30" s="9"/>
@@ -1682,7 +1583,7 @@
       <c r="X30" s="4"/>
       <c r="Y30" s="4"/>
     </row>
-    <row r="31" spans="1:25" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="8"/>
       <c r="B31" s="8"/>
       <c r="C31" s="9"/>
@@ -1709,7 +1610,7 @@
       <c r="X31" s="4"/>
       <c r="Y31" s="4"/>
     </row>
-    <row r="32" spans="1:25" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="8"/>
       <c r="B32" s="8"/>
       <c r="C32" s="9"/>
@@ -1736,7 +1637,7 @@
       <c r="X32" s="4"/>
       <c r="Y32" s="4"/>
     </row>
-    <row r="33" spans="1:25" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="8"/>
       <c r="B33" s="8"/>
       <c r="C33" s="9"/>
@@ -1763,7 +1664,7 @@
       <c r="X33" s="4"/>
       <c r="Y33" s="4"/>
     </row>
-    <row r="34" spans="1:25" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="8"/>
       <c r="B34" s="8"/>
       <c r="C34" s="9"/>
@@ -27737,141 +27638,6 @@
       <c r="X995" s="4"/>
       <c r="Y995" s="4"/>
     </row>
-    <row r="996" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A996" s="8"/>
-      <c r="B996" s="8"/>
-      <c r="C996" s="9"/>
-      <c r="D996" s="10"/>
-      <c r="E996" s="10"/>
-      <c r="F996" s="9"/>
-      <c r="G996" s="10"/>
-      <c r="H996" s="4"/>
-      <c r="I996" s="4"/>
-      <c r="J996" s="4"/>
-      <c r="K996" s="4"/>
-      <c r="L996" s="4"/>
-      <c r="M996" s="4"/>
-      <c r="N996" s="4"/>
-      <c r="O996" s="4"/>
-      <c r="P996" s="4"/>
-      <c r="Q996" s="4"/>
-      <c r="R996" s="4"/>
-      <c r="S996" s="4"/>
-      <c r="T996" s="4"/>
-      <c r="U996" s="4"/>
-      <c r="V996" s="4"/>
-      <c r="W996" s="4"/>
-      <c r="X996" s="4"/>
-      <c r="Y996" s="4"/>
-    </row>
-    <row r="997" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A997" s="8"/>
-      <c r="B997" s="8"/>
-      <c r="C997" s="9"/>
-      <c r="D997" s="10"/>
-      <c r="E997" s="10"/>
-      <c r="F997" s="9"/>
-      <c r="G997" s="10"/>
-      <c r="H997" s="4"/>
-      <c r="I997" s="4"/>
-      <c r="J997" s="4"/>
-      <c r="K997" s="4"/>
-      <c r="L997" s="4"/>
-      <c r="M997" s="4"/>
-      <c r="N997" s="4"/>
-      <c r="O997" s="4"/>
-      <c r="P997" s="4"/>
-      <c r="Q997" s="4"/>
-      <c r="R997" s="4"/>
-      <c r="S997" s="4"/>
-      <c r="T997" s="4"/>
-      <c r="U997" s="4"/>
-      <c r="V997" s="4"/>
-      <c r="W997" s="4"/>
-      <c r="X997" s="4"/>
-      <c r="Y997" s="4"/>
-    </row>
-    <row r="998" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A998" s="8"/>
-      <c r="B998" s="8"/>
-      <c r="C998" s="9"/>
-      <c r="D998" s="10"/>
-      <c r="E998" s="10"/>
-      <c r="F998" s="9"/>
-      <c r="G998" s="10"/>
-      <c r="H998" s="4"/>
-      <c r="I998" s="4"/>
-      <c r="J998" s="4"/>
-      <c r="K998" s="4"/>
-      <c r="L998" s="4"/>
-      <c r="M998" s="4"/>
-      <c r="N998" s="4"/>
-      <c r="O998" s="4"/>
-      <c r="P998" s="4"/>
-      <c r="Q998" s="4"/>
-      <c r="R998" s="4"/>
-      <c r="S998" s="4"/>
-      <c r="T998" s="4"/>
-      <c r="U998" s="4"/>
-      <c r="V998" s="4"/>
-      <c r="W998" s="4"/>
-      <c r="X998" s="4"/>
-      <c r="Y998" s="4"/>
-    </row>
-    <row r="999" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A999" s="8"/>
-      <c r="B999" s="8"/>
-      <c r="C999" s="9"/>
-      <c r="D999" s="10"/>
-      <c r="E999" s="10"/>
-      <c r="F999" s="9"/>
-      <c r="G999" s="10"/>
-      <c r="H999" s="4"/>
-      <c r="I999" s="4"/>
-      <c r="J999" s="4"/>
-      <c r="K999" s="4"/>
-      <c r="L999" s="4"/>
-      <c r="M999" s="4"/>
-      <c r="N999" s="4"/>
-      <c r="O999" s="4"/>
-      <c r="P999" s="4"/>
-      <c r="Q999" s="4"/>
-      <c r="R999" s="4"/>
-      <c r="S999" s="4"/>
-      <c r="T999" s="4"/>
-      <c r="U999" s="4"/>
-      <c r="V999" s="4"/>
-      <c r="W999" s="4"/>
-      <c r="X999" s="4"/>
-      <c r="Y999" s="4"/>
-    </row>
-    <row r="1000" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1000" s="8"/>
-      <c r="B1000" s="8"/>
-      <c r="C1000" s="9"/>
-      <c r="D1000" s="10"/>
-      <c r="E1000" s="10"/>
-      <c r="F1000" s="9"/>
-      <c r="G1000" s="10"/>
-      <c r="H1000" s="4"/>
-      <c r="I1000" s="4"/>
-      <c r="J1000" s="4"/>
-      <c r="K1000" s="4"/>
-      <c r="L1000" s="4"/>
-      <c r="M1000" s="4"/>
-      <c r="N1000" s="4"/>
-      <c r="O1000" s="4"/>
-      <c r="P1000" s="4"/>
-      <c r="Q1000" s="4"/>
-      <c r="R1000" s="4"/>
-      <c r="S1000" s="4"/>
-      <c r="T1000" s="4"/>
-      <c r="U1000" s="4"/>
-      <c r="V1000" s="4"/>
-      <c r="W1000" s="4"/>
-      <c r="X1000" s="4"/>
-      <c r="Y1000" s="4"/>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">

--- a/python/estoque.xlsx
+++ b/python/estoque.xlsx
@@ -15,14 +15,14 @@
     <sheet name="stock" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0">stock!$A$1:$G$13</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0">stock!$A$1:$G$18</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="45">
   <si>
     <t>sapCode</t>
   </si>
@@ -37,6 +37,18 @@
   </si>
   <si>
     <t>cobertura</t>
+  </si>
+  <si>
+    <t>2230210018.02</t>
+  </si>
+  <si>
+    <t>LIBERADO TETO ACABADO 226F BL</t>
+  </si>
+  <si>
+    <t>2230210036.00</t>
+  </si>
+  <si>
+    <t>LIBERADO TETO ACABADO 551F SG - 22</t>
   </si>
   <si>
     <t>2230210046.01</t>
@@ -61,6 +73,18 @@
   </si>
   <si>
     <t>LIBERADO TETO ACABADO 598F SG</t>
+  </si>
+  <si>
+    <t>2230210029.00</t>
+  </si>
+  <si>
+    <t>LIBERADO TETO ACABADO 598F BL</t>
+  </si>
+  <si>
+    <t>2230210031.01</t>
+  </si>
+  <si>
+    <t>LIBERADO TETO ACABADO 521F BL</t>
   </si>
   <si>
     <t>2230210034.01</t>
@@ -97,6 +121,12 @@
   </si>
   <si>
     <t>LIBERADO TETO ACABADO 551F SG - 21</t>
+  </si>
+  <si>
+    <t>2230210048.01</t>
+  </si>
+  <si>
+    <t>LIBERADO TETO ACABADO 551F BL</t>
   </si>
   <si>
     <t>2230210044.01</t>
@@ -188,7 +218,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -220,9 +250,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -241,11 +268,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabela1" displayName="Tabela1" ref="A1:G13" totalsRowShown="0">
-  <autoFilter ref="A1:G13"/>
-  <sortState ref="A2:G18">
-    <sortCondition ref="F1:F18"/>
-  </sortState>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabela1" displayName="Tabela1" ref="A1:G18" totalsRowShown="0">
+  <autoFilter ref="A1:G18"/>
   <tableColumns count="7">
     <tableColumn id="1" name="sapCode"/>
     <tableColumn id="2" name="description"/>
@@ -547,10 +571,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:Y995"/>
+  <dimension ref="A1:Y1000"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="G22" sqref="G22"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -578,7 +602,7 @@
         <v>2</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="E1" s="3" t="s">
         <v>3</v>
@@ -587,7 +611,7 @@
         <v>4</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="H1" s="4"/>
       <c r="I1" s="4"/>
@@ -610,27 +634,27 @@
     </row>
     <row r="2" spans="1:25" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>13</v>
+        <v>5</v>
       </c>
-      <c r="B2" s="15" t="s">
-        <v>14</v>
+      <c r="B2" s="1" t="s">
+        <v>6</v>
       </c>
       <c r="C2" s="5">
         <v>226</v>
       </c>
       <c r="D2" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E2" s="3">
         <v>227</v>
       </c>
       <c r="F2" s="2">
-        <f>IF(OR(D2=0, E2=0), 0, D2/E2)</f>
-        <v>0.44052863436123346</v>
+        <f t="shared" ref="F2:F18" si="0">IF(OR(D2=0, E2=0), 0, D2/E2)</f>
+        <v>0</v>
       </c>
       <c r="G2" s="3">
-        <f>(E2*$G$1)-D2</f>
-        <v>127</v>
+        <f t="shared" ref="G2:G18" si="1">(E2*$G$1)-D2</f>
+        <v>227</v>
       </c>
       <c r="H2" s="4"/>
       <c r="I2" s="4"/>
@@ -653,27 +677,27 @@
     </row>
     <row r="3" spans="1:25" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>21</v>
+        <v>7</v>
       </c>
-      <c r="B3" s="15" t="s">
-        <v>22</v>
+      <c r="B3" s="1" t="s">
+        <v>8</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="D3" s="3">
-        <v>24</v>
+        <v>0</v>
       </c>
       <c r="E3" s="3">
-        <v>36</v>
+        <v>8</v>
       </c>
       <c r="F3" s="2">
-        <f>IF(OR(D3=0, E3=0), 0, D3/E3)</f>
-        <v>0.66666666666666663</v>
+        <f t="shared" si="0"/>
+        <v>0</v>
       </c>
       <c r="G3" s="3">
-        <f>(E3*$G$1)-D3</f>
-        <v>12</v>
+        <f t="shared" si="1"/>
+        <v>8</v>
       </c>
       <c r="H3" s="4"/>
       <c r="I3" s="4"/>
@@ -696,30 +720,30 @@
     </row>
     <row r="4" spans="1:25" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>23</v>
+        <v>9</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>24</v>
+        <v>10</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>31</v>
+        <v>42</v>
       </c>
       <c r="D4" s="3">
-        <v>110</v>
+        <v>77</v>
       </c>
       <c r="E4" s="3">
-        <v>115</v>
+        <v>0</v>
       </c>
       <c r="F4" s="2">
-        <f>IF(OR(D4=0, E4=0), 0, D4/E4)</f>
-        <v>0.95652173913043481</v>
+        <f t="shared" si="0"/>
+        <v>0</v>
       </c>
       <c r="G4" s="3">
-        <f>(E4*$G$1)-D4</f>
-        <v>5</v>
+        <f t="shared" si="1"/>
+        <v>-77</v>
       </c>
-      <c r="H4" s="6"/>
-      <c r="I4" s="6"/>
+      <c r="H4" s="4"/>
+      <c r="I4" s="4"/>
       <c r="J4" s="4"/>
       <c r="K4" s="4"/>
       <c r="L4" s="4"/>
@@ -739,29 +763,29 @@
     </row>
     <row r="5" spans="1:25" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>27</v>
+        <v>11</v>
       </c>
-      <c r="B5" s="15" t="s">
-        <v>28</v>
+      <c r="B5" s="1" t="s">
+        <v>12</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>33</v>
+        <v>42</v>
       </c>
       <c r="D5" s="3">
-        <v>240</v>
+        <v>105</v>
       </c>
       <c r="E5" s="3">
-        <v>240</v>
+        <v>0</v>
       </c>
       <c r="F5" s="2">
-        <f>IF(OR(D5=0, E5=0), 0, D5/E5)</f>
-        <v>1</v>
+        <f t="shared" si="0"/>
+        <v>0</v>
       </c>
       <c r="G5" s="3">
-        <f>(E5*$G$1)-D5</f>
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>-105</v>
       </c>
-      <c r="H5" s="6"/>
+      <c r="H5" s="4"/>
       <c r="I5" s="4"/>
       <c r="J5" s="4"/>
       <c r="K5" s="4"/>
@@ -782,27 +806,27 @@
     </row>
     <row r="6" spans="1:25" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>31</v>
+        <v>42</v>
       </c>
       <c r="D6" s="3">
-        <v>60</v>
+        <v>49</v>
       </c>
       <c r="E6" s="3">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="F6" s="2">
-        <f>IF(OR(D6=0, E6=0), 0, D6/E6)</f>
-        <v>1.2</v>
+        <f t="shared" si="0"/>
+        <v>0</v>
       </c>
       <c r="G6" s="3">
-        <f>(E6*$G$1)-D6</f>
-        <v>-10</v>
+        <f t="shared" si="1"/>
+        <v>-49</v>
       </c>
       <c r="H6" s="4"/>
       <c r="I6" s="4"/>
@@ -825,27 +849,27 @@
     </row>
     <row r="7" spans="1:25" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>32</v>
+        <v>41</v>
       </c>
       <c r="D7" s="3">
-        <v>51</v>
+        <v>78</v>
       </c>
       <c r="E7" s="3">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="F7" s="2">
-        <f>IF(OR(D7=0, E7=0), 0, D7/E7)</f>
-        <v>1.2749999999999999</v>
+        <f t="shared" si="0"/>
+        <v>0</v>
       </c>
       <c r="G7" s="3">
-        <f>(E7*$G$1)-D7</f>
-        <v>-11</v>
+        <f t="shared" si="1"/>
+        <v>-78</v>
       </c>
       <c r="H7" s="4"/>
       <c r="I7" s="4"/>
@@ -868,27 +892,27 @@
     </row>
     <row r="8" spans="1:25" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
-      <c r="B8" s="15" t="s">
-        <v>26</v>
+      <c r="B8" s="1" t="s">
+        <v>18</v>
       </c>
-      <c r="C8" s="5">
-        <v>226</v>
+      <c r="C8" s="2" t="s">
+        <v>41</v>
       </c>
       <c r="D8" s="3">
-        <v>140</v>
+        <v>113</v>
       </c>
       <c r="E8" s="3">
-        <v>101</v>
+        <v>0</v>
       </c>
       <c r="F8" s="2">
-        <f>IF(OR(D8=0, E8=0), 0, D8/E8)</f>
-        <v>1.386138613861386</v>
+        <f t="shared" si="0"/>
+        <v>0</v>
       </c>
       <c r="G8" s="3">
-        <f>(E8*$G$1)-D8</f>
-        <v>-39</v>
+        <f t="shared" si="1"/>
+        <v>-113</v>
       </c>
       <c r="H8" s="4"/>
       <c r="I8" s="4"/>
@@ -911,34 +935,34 @@
     </row>
     <row r="9" spans="1:25" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
-      <c r="B9" s="15" t="s">
-        <v>18</v>
+      <c r="B9" s="1" t="s">
+        <v>20</v>
       </c>
-      <c r="C9" s="5">
-        <v>226</v>
+      <c r="C9" s="2" t="s">
+        <v>43</v>
       </c>
       <c r="D9" s="3">
-        <v>22</v>
+        <v>80</v>
       </c>
       <c r="E9" s="3">
-        <v>13</v>
+        <v>240</v>
       </c>
       <c r="F9" s="2">
-        <f>IF(OR(D9=0, E9=0), 0, D9/E9)</f>
-        <v>1.6923076923076923</v>
+        <f t="shared" si="0"/>
+        <v>0.33333333333333331</v>
       </c>
       <c r="G9" s="3">
-        <f>(E9*$G$1)-D9</f>
-        <v>-9</v>
+        <f t="shared" si="1"/>
+        <v>160</v>
       </c>
-      <c r="H9" s="4"/>
-      <c r="I9" s="4"/>
+      <c r="H9" s="6"/>
+      <c r="I9" s="6"/>
       <c r="J9" s="4"/>
       <c r="K9" s="4"/>
       <c r="L9" s="4"/>
-      <c r="M9" s="7"/>
+      <c r="M9" s="4"/>
       <c r="N9" s="4"/>
       <c r="O9" s="4"/>
       <c r="P9" s="4"/>
@@ -954,29 +978,29 @@
     </row>
     <row r="10" spans="1:25" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>5</v>
+        <v>21</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>6</v>
+        <v>22</v>
       </c>
-      <c r="C10" s="2" t="s">
-        <v>32</v>
+      <c r="C10" s="5">
+        <v>226</v>
       </c>
       <c r="D10" s="3">
-        <v>110</v>
+        <v>70</v>
       </c>
       <c r="E10" s="3">
-        <v>40</v>
+        <v>115</v>
       </c>
       <c r="F10" s="2">
-        <f>IF(OR(D10=0, E10=0), 0, D10/E10)</f>
-        <v>2.75</v>
+        <f t="shared" si="0"/>
+        <v>0.60869565217391308</v>
       </c>
       <c r="G10" s="3">
-        <f>(E10*$G$1)-D10</f>
-        <v>-70</v>
+        <f t="shared" si="1"/>
+        <v>45</v>
       </c>
-      <c r="H10" s="4"/>
+      <c r="H10" s="6"/>
       <c r="I10" s="4"/>
       <c r="J10" s="4"/>
       <c r="K10" s="4"/>
@@ -997,27 +1021,27 @@
     </row>
     <row r="11" spans="1:25" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>7</v>
+        <v>23</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>8</v>
+        <v>24</v>
       </c>
-      <c r="C11" s="2" t="s">
-        <v>32</v>
+      <c r="C11" s="5">
+        <v>226</v>
       </c>
       <c r="D11" s="3">
-        <v>95</v>
+        <v>70</v>
       </c>
       <c r="E11" s="3">
-        <v>29</v>
+        <v>101</v>
       </c>
       <c r="F11" s="2">
-        <f>IF(OR(D11=0, E11=0), 0, D11/E11)</f>
-        <v>3.2758620689655173</v>
+        <f t="shared" si="0"/>
+        <v>0.69306930693069302</v>
       </c>
       <c r="G11" s="3">
-        <f>(E11*$G$1)-D11</f>
-        <v>-66</v>
+        <f t="shared" si="1"/>
+        <v>31</v>
       </c>
       <c r="H11" s="4"/>
       <c r="I11" s="4"/>
@@ -1040,27 +1064,27 @@
     </row>
     <row r="12" spans="1:25" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>15</v>
+        <v>25</v>
       </c>
-      <c r="B12" s="15" t="s">
-        <v>16</v>
+      <c r="B12" s="1" t="s">
+        <v>26</v>
       </c>
       <c r="C12" s="5">
         <v>226</v>
       </c>
       <c r="D12" s="3">
-        <v>80</v>
+        <v>34</v>
       </c>
       <c r="E12" s="3">
-        <v>17</v>
+        <v>40</v>
       </c>
       <c r="F12" s="2">
-        <f>IF(OR(D12=0, E12=0), 0, D12/E12)</f>
-        <v>4.7058823529411766</v>
+        <f t="shared" si="0"/>
+        <v>0.85</v>
       </c>
       <c r="G12" s="3">
-        <f>(E12*$G$1)-D12</f>
-        <v>-63</v>
+        <f t="shared" si="1"/>
+        <v>6</v>
       </c>
       <c r="H12" s="4"/>
       <c r="I12" s="4"/>
@@ -1083,27 +1107,27 @@
     </row>
     <row r="13" spans="1:25" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>19</v>
+        <v>27</v>
       </c>
-      <c r="B13" s="15" t="s">
-        <v>20</v>
+      <c r="B13" s="1" t="s">
+        <v>28</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>34</v>
+        <v>44</v>
       </c>
       <c r="D13" s="3">
-        <v>58</v>
+        <v>35</v>
       </c>
       <c r="E13" s="3">
-        <v>8</v>
+        <v>29</v>
       </c>
       <c r="F13" s="2">
-        <f>IF(OR(D13=0, E13=0), 0, D13/E13)</f>
-        <v>7.25</v>
+        <f t="shared" si="0"/>
+        <v>1.2068965517241379</v>
       </c>
       <c r="G13" s="3">
-        <f>(E13*$G$1)-D13</f>
-        <v>-50</v>
+        <f t="shared" si="1"/>
+        <v>-6</v>
       </c>
       <c r="H13" s="4"/>
       <c r="I13" s="4"/>
@@ -1125,19 +1149,35 @@
       <c r="Y13" s="4"/>
     </row>
     <row r="14" spans="1:25" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="8"/>
-      <c r="B14" s="8"/>
-      <c r="C14" s="9"/>
-      <c r="D14" s="10"/>
-      <c r="E14" s="10"/>
-      <c r="F14" s="9"/>
-      <c r="G14" s="10"/>
+      <c r="A14" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="D14" s="3">
+        <v>71</v>
+      </c>
+      <c r="E14" s="3">
+        <v>36</v>
+      </c>
+      <c r="F14" s="2">
+        <f t="shared" si="0"/>
+        <v>1.9722222222222223</v>
+      </c>
+      <c r="G14" s="3">
+        <f t="shared" si="1"/>
+        <v>-35</v>
+      </c>
       <c r="H14" s="4"/>
       <c r="I14" s="4"/>
       <c r="J14" s="4"/>
       <c r="K14" s="4"/>
       <c r="L14" s="4"/>
-      <c r="M14" s="4"/>
+      <c r="M14" s="7"/>
       <c r="N14" s="4"/>
       <c r="O14" s="4"/>
       <c r="P14" s="4"/>
@@ -1152,13 +1192,29 @@
       <c r="Y14" s="4"/>
     </row>
     <row r="15" spans="1:25" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="8"/>
-      <c r="B15" s="8"/>
-      <c r="C15" s="9"/>
-      <c r="D15" s="10"/>
-      <c r="E15" s="10"/>
-      <c r="F15" s="9"/>
-      <c r="G15" s="10"/>
+      <c r="A15" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="D15" s="3">
+        <v>50</v>
+      </c>
+      <c r="E15" s="3">
+        <v>17</v>
+      </c>
+      <c r="F15" s="2">
+        <f t="shared" si="0"/>
+        <v>2.9411764705882355</v>
+      </c>
+      <c r="G15" s="3">
+        <f t="shared" si="1"/>
+        <v>-33</v>
+      </c>
       <c r="H15" s="4"/>
       <c r="I15" s="4"/>
       <c r="J15" s="4"/>
@@ -1179,13 +1235,29 @@
       <c r="Y15" s="4"/>
     </row>
     <row r="16" spans="1:25" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="8"/>
-      <c r="B16" s="8"/>
-      <c r="C16" s="9"/>
-      <c r="D16" s="10"/>
-      <c r="E16" s="10"/>
-      <c r="F16" s="9"/>
-      <c r="G16" s="10"/>
+      <c r="A16" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="D16" s="3">
+        <v>45</v>
+      </c>
+      <c r="E16" s="3">
+        <v>13</v>
+      </c>
+      <c r="F16" s="2">
+        <f t="shared" si="0"/>
+        <v>3.4615384615384617</v>
+      </c>
+      <c r="G16" s="3">
+        <f t="shared" si="1"/>
+        <v>-32</v>
+      </c>
       <c r="H16" s="4"/>
       <c r="I16" s="4"/>
       <c r="J16" s="4"/>
@@ -1206,13 +1278,29 @@
       <c r="Y16" s="4"/>
     </row>
     <row r="17" spans="1:25" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="8"/>
-      <c r="B17" s="8"/>
-      <c r="C17" s="9"/>
-      <c r="D17" s="10"/>
-      <c r="E17" s="10"/>
-      <c r="F17" s="9"/>
-      <c r="G17" s="10"/>
+      <c r="A17" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C17" s="5">
+        <v>226</v>
+      </c>
+      <c r="D17" s="3">
+        <v>240</v>
+      </c>
+      <c r="E17" s="3">
+        <v>40</v>
+      </c>
+      <c r="F17" s="2">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="G17" s="3">
+        <f t="shared" si="1"/>
+        <v>-200</v>
+      </c>
       <c r="H17" s="4"/>
       <c r="I17" s="4"/>
       <c r="J17" s="4"/>
@@ -1233,13 +1321,29 @@
       <c r="Y17" s="4"/>
     </row>
     <row r="18" spans="1:25" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="8"/>
-      <c r="B18" s="8"/>
-      <c r="C18" s="9"/>
-      <c r="D18" s="10"/>
-      <c r="E18" s="10"/>
-      <c r="F18" s="9"/>
-      <c r="G18" s="10"/>
+      <c r="A18" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="D18" s="3">
+        <v>330</v>
+      </c>
+      <c r="E18" s="3">
+        <v>50</v>
+      </c>
+      <c r="F18" s="2">
+        <f t="shared" si="0"/>
+        <v>6.6</v>
+      </c>
+      <c r="G18" s="3">
+        <f t="shared" si="1"/>
+        <v>-280</v>
+      </c>
       <c r="H18" s="4"/>
       <c r="I18" s="4"/>
       <c r="J18" s="4"/>
@@ -1556,7 +1660,7 @@
       <c r="X29" s="4"/>
       <c r="Y29" s="4"/>
     </row>
-    <row r="30" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:25" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="8"/>
       <c r="B30" s="8"/>
       <c r="C30" s="9"/>
@@ -1583,7 +1687,7 @@
       <c r="X30" s="4"/>
       <c r="Y30" s="4"/>
     </row>
-    <row r="31" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:25" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="8"/>
       <c r="B31" s="8"/>
       <c r="C31" s="9"/>
@@ -1610,7 +1714,7 @@
       <c r="X31" s="4"/>
       <c r="Y31" s="4"/>
     </row>
-    <row r="32" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:25" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="8"/>
       <c r="B32" s="8"/>
       <c r="C32" s="9"/>
@@ -1637,7 +1741,7 @@
       <c r="X32" s="4"/>
       <c r="Y32" s="4"/>
     </row>
-    <row r="33" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:25" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="8"/>
       <c r="B33" s="8"/>
       <c r="C33" s="9"/>
@@ -1664,7 +1768,7 @@
       <c r="X33" s="4"/>
       <c r="Y33" s="4"/>
     </row>
-    <row r="34" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:25" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="8"/>
       <c r="B34" s="8"/>
       <c r="C34" s="9"/>
@@ -27638,6 +27742,141 @@
       <c r="X995" s="4"/>
       <c r="Y995" s="4"/>
     </row>
+    <row r="996" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A996" s="8"/>
+      <c r="B996" s="8"/>
+      <c r="C996" s="9"/>
+      <c r="D996" s="10"/>
+      <c r="E996" s="10"/>
+      <c r="F996" s="9"/>
+      <c r="G996" s="10"/>
+      <c r="H996" s="4"/>
+      <c r="I996" s="4"/>
+      <c r="J996" s="4"/>
+      <c r="K996" s="4"/>
+      <c r="L996" s="4"/>
+      <c r="M996" s="4"/>
+      <c r="N996" s="4"/>
+      <c r="O996" s="4"/>
+      <c r="P996" s="4"/>
+      <c r="Q996" s="4"/>
+      <c r="R996" s="4"/>
+      <c r="S996" s="4"/>
+      <c r="T996" s="4"/>
+      <c r="U996" s="4"/>
+      <c r="V996" s="4"/>
+      <c r="W996" s="4"/>
+      <c r="X996" s="4"/>
+      <c r="Y996" s="4"/>
+    </row>
+    <row r="997" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A997" s="8"/>
+      <c r="B997" s="8"/>
+      <c r="C997" s="9"/>
+      <c r="D997" s="10"/>
+      <c r="E997" s="10"/>
+      <c r="F997" s="9"/>
+      <c r="G997" s="10"/>
+      <c r="H997" s="4"/>
+      <c r="I997" s="4"/>
+      <c r="J997" s="4"/>
+      <c r="K997" s="4"/>
+      <c r="L997" s="4"/>
+      <c r="M997" s="4"/>
+      <c r="N997" s="4"/>
+      <c r="O997" s="4"/>
+      <c r="P997" s="4"/>
+      <c r="Q997" s="4"/>
+      <c r="R997" s="4"/>
+      <c r="S997" s="4"/>
+      <c r="T997" s="4"/>
+      <c r="U997" s="4"/>
+      <c r="V997" s="4"/>
+      <c r="W997" s="4"/>
+      <c r="X997" s="4"/>
+      <c r="Y997" s="4"/>
+    </row>
+    <row r="998" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A998" s="8"/>
+      <c r="B998" s="8"/>
+      <c r="C998" s="9"/>
+      <c r="D998" s="10"/>
+      <c r="E998" s="10"/>
+      <c r="F998" s="9"/>
+      <c r="G998" s="10"/>
+      <c r="H998" s="4"/>
+      <c r="I998" s="4"/>
+      <c r="J998" s="4"/>
+      <c r="K998" s="4"/>
+      <c r="L998" s="4"/>
+      <c r="M998" s="4"/>
+      <c r="N998" s="4"/>
+      <c r="O998" s="4"/>
+      <c r="P998" s="4"/>
+      <c r="Q998" s="4"/>
+      <c r="R998" s="4"/>
+      <c r="S998" s="4"/>
+      <c r="T998" s="4"/>
+      <c r="U998" s="4"/>
+      <c r="V998" s="4"/>
+      <c r="W998" s="4"/>
+      <c r="X998" s="4"/>
+      <c r="Y998" s="4"/>
+    </row>
+    <row r="999" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A999" s="8"/>
+      <c r="B999" s="8"/>
+      <c r="C999" s="9"/>
+      <c r="D999" s="10"/>
+      <c r="E999" s="10"/>
+      <c r="F999" s="9"/>
+      <c r="G999" s="10"/>
+      <c r="H999" s="4"/>
+      <c r="I999" s="4"/>
+      <c r="J999" s="4"/>
+      <c r="K999" s="4"/>
+      <c r="L999" s="4"/>
+      <c r="M999" s="4"/>
+      <c r="N999" s="4"/>
+      <c r="O999" s="4"/>
+      <c r="P999" s="4"/>
+      <c r="Q999" s="4"/>
+      <c r="R999" s="4"/>
+      <c r="S999" s="4"/>
+      <c r="T999" s="4"/>
+      <c r="U999" s="4"/>
+      <c r="V999" s="4"/>
+      <c r="W999" s="4"/>
+      <c r="X999" s="4"/>
+      <c r="Y999" s="4"/>
+    </row>
+    <row r="1000" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1000" s="8"/>
+      <c r="B1000" s="8"/>
+      <c r="C1000" s="9"/>
+      <c r="D1000" s="10"/>
+      <c r="E1000" s="10"/>
+      <c r="F1000" s="9"/>
+      <c r="G1000" s="10"/>
+      <c r="H1000" s="4"/>
+      <c r="I1000" s="4"/>
+      <c r="J1000" s="4"/>
+      <c r="K1000" s="4"/>
+      <c r="L1000" s="4"/>
+      <c r="M1000" s="4"/>
+      <c r="N1000" s="4"/>
+      <c r="O1000" s="4"/>
+      <c r="P1000" s="4"/>
+      <c r="Q1000" s="4"/>
+      <c r="R1000" s="4"/>
+      <c r="S1000" s="4"/>
+      <c r="T1000" s="4"/>
+      <c r="U1000" s="4"/>
+      <c r="V1000" s="4"/>
+      <c r="W1000" s="4"/>
+      <c r="X1000" s="4"/>
+      <c r="Y1000" s="4"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
